--- a/biology/Botanique/Rhodamnia/Rhodamnia.xlsx
+++ b/biology/Botanique/Rhodamnia/Rhodamnia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodamnia est un genre d'arbres et d'arbustes de la famille des Myrtaceae. Le nom est dérivé du grec rhodon qui signifie « rose » et aminon, « bol » où était versé le sang des agneaux après le sacrifice. Il se réfère à la forme en bol du calice de ces plantes. Les feuilles sont opposées et surtout ont trois nervures apparentes. Le fruit est une petite baie avec quelques graines.
 Il existe environ 28 espèces de Rhodamnia. On les trouve en Chine, Nouvelle-Calédonie, Nouvelle-Guinée et Australie.
@@ -512,9 +524,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (24 janv. 2011)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (24 janv. 2011) :
 Rhodamnia acuminata C.T.White, Blumea (1937)
 Rhodamnia andromedoides Guillaumin (1938 publ. 1939)
 Rhodamnia angustifolia N.Snow &amp; Guymer (1999)
